--- a/HW #5/HW5_REPORT.xlsx
+++ b/HW #5/HW5_REPORT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\ДЗ ОП\HW #5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\BozhnyukSPBUhw\HW #5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -290,32 +290,32 @@
     <t>{1,2,3,4,5}</t>
   </si>
   <si>
-    <t>0x0D2F38</t>
-  </si>
-  <si>
-    <t>0x0D2F68</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0x0D2F78</t>
-  </si>
-  <si>
-    <t>0x0D2F88</t>
-  </si>
-  <si>
-    <t>0x0003E8</t>
-  </si>
-  <si>
-    <t>0x002711</t>
-  </si>
-  <si>
-    <t>0x000052</t>
+    <t>0xC22F18</t>
+  </si>
+  <si>
+    <t>0xC22F38</t>
+  </si>
+  <si>
+    <t>0xC22F48</t>
+  </si>
+  <si>
+    <t>0xC22F58</t>
+  </si>
+  <si>
+    <t>0xC22F68</t>
+  </si>
+  <si>
+    <t>0xC22F78</t>
   </si>
   <si>
     <t>Выводы. Мы имеем следующую оценку расположения сущностей в областях памяти. 
 В одной области памяти находятся все функции, как пользовательские, так и системные (&gt; 4190000 в 10 с.с).
 Область памяти глобальных переменных находится близко к области памяти функций. (&gt; 4218000 в 10 с.с.)
 Область памяти локальных переменных находится далеко от области памяти функций и глобальных переменных(&gt; 6350000 в 10 с. с.) 
-Адреса динамически выделенных переменных также динамичны. Они зависят от значения в этих переменных (в отличии от остальных сущностей). Можно заметить из таблицы, что адреса динамических переменных типа int в 10 с.с. совпадают с их значением.</t>
+Область памяти динамически выделенных переменных находится дальше всех (&gt; 12726000  в 10 с. с.)</t>
+  </si>
+  <si>
+    <t>0xC22F88</t>
   </si>
 </sst>
 </file>
@@ -664,15 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,6 +679,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,47 +1025,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1359,31 +1359,31 @@
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1409,11 +1409,11 @@
       <c r="J16" s="2">
         <v>1000</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>92</v>
+      <c r="K16" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="L16" s="3">
-        <v>1000</v>
+        <v>12726040</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1439,10 +1439,10 @@
         <v>76</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="3">
-        <v>864056</v>
+        <v>12726072</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1468,10 +1468,10 @@
         <v>10001</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L18" s="3">
-        <v>10001</v>
+        <v>12726088</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1485,23 +1485,23 @@
         <v>85</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L19" s="3">
-        <v>82</v>
+        <v>12726104</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1514,10 +1514,10 @@
         <v>84</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L20" s="3">
-        <v>864104</v>
+        <v>12726120</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>86</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L21" s="3">
-        <v>864120</v>
+        <v>12726136</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,10 +1572,10 @@
         <v>87</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7">
-        <v>864136</v>
+        <v>12726152</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>

--- a/HW #5/HW5_REPORT.xlsx
+++ b/HW #5/HW5_REPORT.xlsx
@@ -308,14 +308,15 @@
     <t>0xC22F78</t>
   </si>
   <si>
+    <t>0xC22F88</t>
+  </si>
+  <si>
     <t>Выводы. Мы имеем следующую оценку расположения сущностей в областях памяти. 
 В одной области памяти находятся все функции, как пользовательские, так и системные (&gt; 4190000 в 10 с.с).
 Область памяти глобальных переменных находится близко к области памяти функций. (&gt; 4218000 в 10 с.с.)
 Область памяти локальных переменных находится далеко от области памяти функций и глобальных переменных(&gt; 6350000 в 10 с. с.) 
-Область памяти динамически выделенных переменных находится дальше всех (&gt; 12726000  в 10 с. с.)</t>
-  </si>
-  <si>
-    <t>0xC22F88</t>
+Область памяти динамически выделенных переменных находится дальше всех (&gt; 12726000  в 10 с. с.)
+Согласно теории, всего 4 разных области памяти, соответственно, наблюдаемое поведение совпадает с теорией.</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7">
         <v>12726152</v>
@@ -1595,7 +1596,7 @@
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
